--- a/doc/carom_prameter.xlsx
+++ b/doc/carom_prameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbmrk\PycharmProjects\Carom-API-Server\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qjrm6\inte\Carom-API-Server\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2F26FF-8143-4324-9A8E-ABC7DE1CC0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F10F8F2-5004-42B6-8E68-EFE21C78099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5080FA1-384D-4BCF-A8F0-4D515B53933F}"/>
+    <workbookView xWindow="6225" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{D5080FA1-384D-4BCF-A8F0-4D515B53933F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,13 +646,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4D3C5-D01F-4196-9C25-702EE235E2FF}">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W67" sqref="W67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -706,7 +706,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -735,7 +735,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1006,7 +1006,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1058,7 +1058,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>20</v>
@@ -1097,7 +1097,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <v>5.6752243041992188</v>
@@ -1173,7 +1173,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <v>17.711312294006351</v>
@@ -1210,7 +1210,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <v>20.559497833251953</v>
@@ -1247,7 +1247,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <v>22.928732872009277</v>
@@ -1284,7 +1284,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <v>30.920017242431648</v>
@@ -1321,7 +1321,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <v>38.130702972412109</v>
@@ -1397,7 +1397,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>39.053585052490234</v>
@@ -1434,7 +1434,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -1552,7 +1552,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>21</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6">
         <v>30</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="11">
         <v>10.0800000190735</v>
@@ -1788,7 +1788,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="11">
         <v>11.320000076293899</v>
@@ -1853,7 +1853,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="11">
         <v>12.5600001335144</v>
@@ -1918,7 +1918,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="11">
         <v>13.800000190734901</v>
@@ -1983,7 +1983,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="11">
         <v>15.5</v>
@@ -2048,7 +2048,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="11">
         <v>17.199999809265101</v>
@@ -2113,7 +2113,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="11">
         <v>18.899999618530298</v>
@@ -2178,7 +2178,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="11">
         <v>20.599999427795399</v>
@@ -2243,7 +2243,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2335,7 +2335,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>90</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>75</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>70</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>65</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>60</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>55</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>45</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>40</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>35</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>30</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>25</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>20</v>
       </c>
@@ -2793,7 +2793,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>0</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2847,7 +2847,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2872,7 +2872,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>35</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>10</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>845.1961669921875</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>925.83908691406248</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>1008.211181640625</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>1055.691162109375</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>1115.6991577148438</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>1159.1106201171876</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>1210.7822631835938</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>1271.5157714843751</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>1359.6016723632813</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>1657.4952392578125</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3289,7 +3289,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3314,7 +3314,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>36</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>1.2150408420711757E-2</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>1.6419608145952225E-2</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>2.0728415064513697E-2</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>2.719945460557938E-2</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>3.3806236460804939E-2</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>4.5083763450384153E-2</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>5.7259835302829742E-2</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>8.208897262811661E-2</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>0.13943121284246449</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>1</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3753,7 +3753,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3778,7 +3778,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3803,7 +3803,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3828,7 +3828,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3853,7 +3853,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3878,7 +3878,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3903,7 +3903,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3928,7 +3928,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3953,7 +3953,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3978,7 +3978,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4003,7 +4003,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
